--- a/ARI.xlsx
+++ b/ARI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UFSCar\BCC6\IA\trabalhoPratico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UFSCar\BCC6\IA\IA-2018-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
-  <si>
-    <t>c2ds1-2sp</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>AVGLINK</t>
   </si>
@@ -35,13 +32,7 @@
     <t>SLINK</t>
   </si>
   <si>
-    <t>KMEANS*</t>
-  </si>
-  <si>
-    <t>monkey</t>
-  </si>
-  <si>
-    <t>c2ds3-2g</t>
+    <t>KMEANS</t>
   </si>
 </sst>
 </file>
@@ -105,6 +96,3227 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Comparação de IRAs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVGLINK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.2124999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8874999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5624000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5494000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SLINK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99800199999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.996004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99400999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KMEANS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.2887920000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4568940000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0819940000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1932000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-440736640"/>
+        <c:axId val="-440730112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-440736640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-440730112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-440730112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-440736640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Comparação de IRAs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVGLINK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.47286800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38517499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.471802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.353796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SLINK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.6000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2000000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5700000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2900000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KMEANS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.88725200000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44044899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.343912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34821800000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-141169776"/>
+        <c:axId val="-141171952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-141169776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-141171952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-141171952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-141169776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Comparação de IRAs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVGLINK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.32943899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.401393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.482375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49675799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65141700000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67131399999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63835500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64482899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SLINK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.59957899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76439100000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87077099999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83445499999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82766700000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82274099999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82218999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81828199999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KMEANS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.41932599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52945299999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.497728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59575800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49138300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55856600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50411700000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40097300000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-141175760"/>
+        <c:axId val="-141181200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-141175760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-141181200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-141181200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-141175760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>461961</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>90486</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,15 +3585,12 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1">
         <v>2</v>
       </c>
@@ -397,13 +3606,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>9.8250000000000004E-3</v>
+        <v>2.2124999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>1.2723999999999999E-2</v>
+        <v>1.8874999999999999E-2</v>
       </c>
       <c r="D2">
         <v>1.5624000000000001E-2</v>
@@ -414,7 +3623,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -431,7 +3640,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>3.2887920000000001E-2</v>
@@ -447,9 +3656,6 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
       <c r="B6">
         <v>2</v>
       </c>
@@ -465,24 +3671,24 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.71543800000000002</v>
+        <v>0.47286800000000001</v>
       </c>
       <c r="C7">
-        <v>0.56684500000000004</v>
+        <v>0.38517499999999999</v>
       </c>
       <c r="D7">
-        <v>0.40476800000000002</v>
+        <v>0.471802</v>
       </c>
       <c r="E7">
-        <v>0.31590400000000002</v>
+        <v>0.353796</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>3.6000000000000002E-4</v>
@@ -499,7 +3705,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>0.88725200000000004</v>
@@ -515,9 +3721,6 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
       <c r="B11">
         <v>5</v>
       </c>
@@ -545,36 +3748,36 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.32945099999999999</v>
+        <v>0.32943899999999998</v>
       </c>
       <c r="C12">
-        <v>0.37653700000000001</v>
+        <v>0.401393</v>
       </c>
       <c r="D12">
-        <v>0.40647899999999998</v>
+        <v>0.482375</v>
       </c>
       <c r="E12">
-        <v>0.50844100000000003</v>
+        <v>0.49675799999999998</v>
       </c>
       <c r="F12">
-        <v>0.52334599999999998</v>
+        <v>0.65141700000000002</v>
       </c>
       <c r="G12">
-        <v>0.48032999999999998</v>
+        <v>0.67131399999999997</v>
       </c>
       <c r="H12">
-        <v>0.50873000000000002</v>
+        <v>0.63835500000000001</v>
       </c>
       <c r="I12">
-        <v>0.47425</v>
+        <v>0.64482899999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>0.59957899999999997</v>
@@ -603,7 +3806,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>0.41932599999999998</v>
@@ -633,5 +3836,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>